--- a/trunk/hypo.xlsx
+++ b/trunk/hypo.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>http://powerful-strategy.com/</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>http://inter-inv.com</t>
+  </si>
+  <si>
+    <t>https://www.novelprofit.com</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1576,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="5:7">
+    <row r="65" spans="1:7">
       <c r="E65">
         <v>49</v>
       </c>
@@ -1585,6 +1588,48 @@
       </c>
       <c r="G65">
         <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>105</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>120</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>175</v>
+      </c>
+      <c r="G68">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1656,9 @@
     <hyperlink ref="A53" r:id="rId20"/>
     <hyperlink ref="A58" r:id="rId21"/>
     <hyperlink ref="A60" r:id="rId22"/>
+    <hyperlink ref="A66" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="portrait" copies="0" r:id="rId23"/>
+  <pageSetup paperSize="11" orientation="portrait" copies="0" r:id="rId24"/>
 </worksheet>
 </file>
--- a/trunk/hypo.xlsx
+++ b/trunk/hypo.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>http://powerful-strategy.com/</t>
   </si>
@@ -155,6 +156,15 @@
   </si>
   <si>
     <t>https://www.novelprofit.com</t>
+  </si>
+  <si>
+    <t>U8383792</t>
+  </si>
+  <si>
+    <t>Ij^8l^3Jhl</t>
+  </si>
+  <si>
+    <t>74779-29702</t>
   </si>
 </sst>
 </file>
@@ -541,9 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -718,10 +726,22 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G6">
         <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>40820</v>
+      </c>
+      <c r="L6" s="3">
+        <v>40821</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1661,4 +1681,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" copies="0" r:id="rId24"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>82879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>